--- a/data/test_case_web.xlsx
+++ b/data/test_case_web.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
   <si>
     <t>method</t>
   </si>
@@ -39,8 +45,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -62,16 +68,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,107 +173,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,67 +212,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,115 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,45 +403,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,8 +435,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,15 +503,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,145 +511,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,45 +979,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="53.75" customWidth="1"/>
+    <col min="4" max="4" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.weseepro.com/api/v1/message/discovery/v1"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.jianshipro.cn/api/v1/account/discovery/applyJoin"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.weseepro.com/api/v1/message/discovery/v1"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.jianshipro.cn/api/v1/account/discovery/applyJoin"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/test_case_web.xlsx
+++ b/data/test_case_web.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>case_id</t>
+    <t>id</t>
   </si>
   <si>
     <t>title</t>
@@ -28,16 +28,19 @@
     <t>url</t>
   </si>
   <si>
+    <t>其他信源管理后台列表</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>https://www.weseepro.com/api/v1/message/discovery/v1</t>
+    <t>https://www.jianshipro.cn/api/v1/analysisProvider/data/sys</t>
   </si>
   <si>
-    <t>post</t>
+    <t>其他信源管理之获取信源列表</t>
   </si>
   <si>
-    <t>https://www.jianshipro.cn/api/v1/account/discovery/applyJoin</t>
+    <t>https://www.jianshipro.cn/api/v1/analysisProvider/data/sys/website</t>
   </si>
 </sst>
 </file>
@@ -45,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,14 +64,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,17 +77,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,29 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +130,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -165,8 +160,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,30 +201,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,25 +215,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,139 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,41 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,6 +437,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -489,6 +466,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,6 +491,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -511,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,133 +526,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -657,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,12 +985,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="53.75" customWidth="1"/>
+    <col min="4" max="4" width="70.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1008,28 +1011,34 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.weseepro.com/api/v1/message/discovery/v1"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.jianshipro.cn/api/v1/account/discovery/applyJoin"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys" tooltip="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys/website" tooltip="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys/website"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/test_case_web.xlsx
+++ b/data/test_case_web.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>url</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>其他信源管理后台列表</t>
   </si>
   <si>
@@ -37,10 +40,22 @@
     <t>https://www.jianshipro.cn/api/v1/analysisProvider/data/sys</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>其他信源管理之获取信源列表</t>
   </si>
   <si>
     <t>https://www.jianshipro.cn/api/v1/analysisProvider/data/sys/website</t>
+  </si>
+  <si>
+    <t>查询圈子来加入信息块</t>
+  </si>
+  <si>
+    <t>https://www.jianshipro.cn/api/v1/message/circle/sys/link/9920a78ca11f4706a4a1d628b9019b73</t>
+  </si>
+  <si>
+    <t>{"keyword":"圈子","pageNumber":"1","pageSize":"10"}</t>
   </si>
 </sst>
 </file>
@@ -48,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,6 +79,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -77,6 +100,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -84,9 +122,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,17 +169,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,14 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -145,24 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,7 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,29 +215,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,12 +230,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,85 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,79 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,41 +427,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,11 +450,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,142 +541,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -982,18 +1006,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="70.125" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,42 +1029,68 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="54" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys" tooltip="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys/website" tooltip="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys/website"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.jianshipro.cn/api/v1/analysisProvider/data/sys/website"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://www.jianshipro.cn/api/v1/message/circle/sys/link/9920a78ca11f4706a4a1d628b9019b73"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
